--- a/mosip_master/xlsx/identity_schema.xlsx
+++ b/mosip_master/xlsx/identity_schema.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kames\IdeaProjects\mosip-data\mosip_master\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sao Tome and Principe\IJ-CODE\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA486A0-4016-4BD7-9AA3-56B98C58C442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227E2502-6A83-4A53-961C-400431E9D24A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -79,7 +79,7 @@
   </si>
   <si>
     <t>{
-	"$schema": "http:\/\/json-schema.org\/draft-07\/schema#",
+	"$schema": "http://json-schema.org/draft-07/schema#",
 	"description": "MOSIP Sample identity",
 	"additionalProperties": false,
 	"title": "MOSIP identity",
@@ -153,81 +153,57 @@
 				"fullName",
 				"dateOfBirth",
 				"gender",
-				"addressLine1",
-				"addressLine2",
-				"addressLine3",
-				"region",
-				"province",
+				"island",
+				"district",
 				"city",
-				"zone",
-				"postalCode",
-				"phone",
-				"email",
-				"proofOfIdentity",
+				"villa",
 				"individualBiometrics"
 			],
 			"properties": {
 				"proofOfAddress": {
-					"bioAttributes": [
-					],
-					"fieldCategory": "pvt",
-					"format": "none",
-					"fieldType": "default",
-					"$ref": "#\/definitions\/documentType"
+					"bioAttributes": [],
+					"fieldCategory": "pvt",
+					"format": "none",
+					"fieldType": "default",
+					"$ref": "#/definitions/documentType"
 				},
 				"gender": {
-					"bioAttributes": [
-					],
+					"bioAttributes": [],
 					"fieldCategory": "pvt",
 					"format": "",
 					"fieldType": "default",
-					"$ref": "#\/definitions\/simpleType"
+					"$ref": "#/definitions/simpleType"
 				},
 				"city": {
-					"bioAttributes": [
-					],
-					"validators": [{
-						"validator": "^(?=.{0,50}$).*",
-						"arguments": [
-						],
-						"type": "regex"
-					}],
-					"fieldCategory": "pvt",
-					"format": "none",
-					"fieldType": "default",
-					"$ref": "#\/definitions\/simpleType"
-				},
-				"postalCode": {
-					"bioAttributes": [
-					],
-					"validators": [{
-						"validator": "^[(?i)A-Z0-9]{5}$|^NA$",
-						"arguments": [
-						],
-						"type": "regex"
-					}],
-					"fieldCategory": "pvt",
-					"format": "none",
-					"type": "string",
-					"fieldType": "default"
+					"bioAttributes": [],
+					"validators": [
+						{
+							"validator": "^(?=.{0,50}$).*",
+							"arguments": [],
+							"type": "regex"
+						}
+					],
+					"fieldCategory": "pvt",
+					"format": "none",
+					"fieldType": "default",
+					"$ref": "#/definitions/simpleType"
 				},
 				"proofOfException-1": {
-					"bioAttributes": [
-					],
+					"bioAttributes": [],
 					"fieldCategory": "evidence",
 					"format": "none",
 					"fieldType": "default",
-					"$ref": "#\/definitions\/documentType"
+					"$ref": "#/definitions/documentType"
 				},
 				"referenceIdentityNumber": {
-					"bioAttributes": [
-					],
-					"validators": [{
-						"validator": "^([0-9]{10,30})$",
-						"arguments": [
-						],
-						"type": "regex"
-					}],
+					"bioAttributes": [],
+					"validators": [
+						{
+							"validator": "^([0-9]{10,30})$",
+							"arguments": [],
+							"type": "regex"
+						}
+					],
 					"fieldCategory": "pvt",
 					"format": "kyc",
 					"type": "string",
@@ -252,105 +228,80 @@
 					"fieldCategory": "pvt",
 					"format": "none",
 					"fieldType": "default",
-					"$ref": "#\/definitions\/biometricsType"
-				},
-				"province": {
-					"bioAttributes": [
-					],
-					"validators": [{
-						"validator": "^(?=.{0,50}$).*",
-						"arguments": [
-						],
-						"type": "regex"
-					}],
-					"fieldCategory": "pvt",
-					"format": "none",
-					"fieldType": "default",
-					"$ref": "#\/definitions\/simpleType"
-				},
-				"zone": {
-					"bioAttributes": [
-					],
-					"fieldCategory": "pvt",
-					"format": "none",
-					"fieldType": "default",
-					"$ref": "#\/definitions\/simpleType"
+					"$ref": "#/definitions/biometricsType"
+				},
+				"island": {
+					"bioAttributes": [],
+					"validators": [
+						{
+							"validator": "^(?=.{0,50}$).*",
+							"arguments": [],
+							"type": "regex"
+						}
+					],
+					"fieldCategory": "pvt",
+					"format": "none",
+					"fieldType": "default",
+					"$ref": "#/definitions/simpleType"
+				},
+				"district": {
+					"bioAttributes": [],
+					"fieldCategory": "pvt",
+					"format": "none",
+					"fieldType": "default",
+					"$ref": "#/definitions/simpleType"
+				},
+				"city": {
+					"bioAttributes": [],
+					"fieldCategory": "pvt",
+					"format": "none",
+					"fieldType": "default",
+					"$ref": "#/definitions/simpleType"
+				},
+				"villa": {
+					"bioAttributes": [],
+					"fieldCategory": "pvt",
+					"format": "none",
+					"fieldType": "default",
+					"$ref": "#/definitions/simpleType"
 				},
 				"proofOfDateOfBirth": {
-					"bioAttributes": [
-					],
-					"fieldCategory": "pvt",
-					"format": "none",
-					"fieldType": "default",
-					"$ref": "#\/definitions\/documentType"
+					"bioAttributes": [],
+					"fieldCategory": "pvt",
+					"format": "none",
+					"fieldType": "default",
+					"$ref": "#/definitions/documentType"
 				},
 				"addressLine1": {
-					"bioAttributes": [
-					],
-					"validators": [{
-						"validator": "^(?=.{0,50}$).*",
-						"arguments": [
-						],
-						"type": "regex"
-					}],
-					"fieldCategory": "pvt",
-					"format": "none",
-					"fieldType": "default",
-					"$ref": "#\/definitions\/simpleType"
-				},
-				"addressLine2": {
-					"bioAttributes": [
-					],
-					"validators": [{
-						"validator": "^(?=.{3,50}$).*",
-						"arguments": [
-						],
-						"type": "regex"
-					}],
-					"fieldCategory": "pvt",
-					"format": "none",
-					"fieldType": "default",
-					"$ref": "#\/definitions\/simpleType"
-				},
-				"residenceStatus": {
-					"bioAttributes": [
-					],
-					"fieldCategory": "kyc",
-					"format": "none",
-					"fieldType": "default",
-					"$ref": "#\/definitions\/simpleType"
-				},
-				"addressLine3": {
-					"bioAttributes": [
-					],
-					"validators": [{
-						"validator": "^(?=.{3,50}$).*",
-						"arguments": [
-						],
-						"type": "regex"
-					}],
-					"fieldCategory": "pvt",
-					"format": "none",
-					"fieldType": "default",
-					"$ref": "#\/definitions\/simpleType"
+					"bioAttributes": [],
+					"validators": [
+						{
+							"validator": "^(?=.{0,50}$).*",
+							"arguments": [],
+							"type": "regex"
+						}
+					],
+					"fieldCategory": "pvt",
+					"format": "none",
+					"fieldType": "default",
+					"$ref": "#/definitions/simpleType"
 				},
 				"email": {
-					"bioAttributes": [
-					],
-					"validators": [{
-						"validator": "^[A-Za-z0-9_\\-]+(\\.[A-Za-z0-9_]+)*@[A-Za-z0-9_-]+(\\.[A-Za-z0-9_]+)*(\\.[a-zA-Z]{2,})$",
-						"arguments": [
-						],
-						"type": "regex"
-					}],
+					"bioAttributes": [],
+					"validators": [
+						{
+							"validator": "^[A-Za-z0-9_\\-]+(\\.[A-Za-z0-9_]+)*@[A-Za-z0-9_-]+(\\.[A-Za-z0-9_]+)*(\\.[a-zA-Z]{2,})$",
+							"arguments": [],
+							"type": "regex"
+						}
+					],
 					"fieldCategory": "pvt",
 					"format": "none",
 					"type": "string",
 					"fieldType": "default"
 				},
 				"introducerRID": {
-					"bioAttributes": [
-					],
+					"bioAttributes": [],
 					"fieldCategory": "evidence",
 					"format": "none",
 					"type": "string",
@@ -375,31 +326,31 @@
 					"fieldCategory": "pvt",
 					"format": "none",
 					"fieldType": "default",
-					"$ref": "#\/definitions\/biometricsType"
+					"$ref": "#/definitions/biometricsType"
 				},
 				"fullName": {
-					"bioAttributes": [
-					],
-					"validators": [{
-						"validator": "^(?=.{3,50}$).*",
-						"arguments": [
-						],
-						"type": "regex"
-					}],
-					"fieldCategory": "pvt",
-					"format": "none",
-					"fieldType": "default",
-					"$ref": "#\/definitions\/simpleType"
+					"bioAttributes": [],
+					"validators": [
+						{
+							"validator": "^(?=.{3,50}$).*",
+							"arguments": [],
+							"type": "regex"
+						}
+					],
+					"fieldCategory": "pvt",
+					"format": "none",
+					"fieldType": "default",
+					"$ref": "#/definitions/simpleType"
 				},
 				"dateOfBirth": {
-					"bioAttributes": [
-					],
-					"validators": [{
-						"validator": "^(1869|18[7-9][0-9]|19[0-9][0-9]|20[0-9][0-9])\/([0][1-9]|1[0-2])\/([0][1-9]|[1-2][0-9]|3[01])$",
-						"arguments": [
-						],
-						"type": "regex"
-					}],
+					"bioAttributes": [],
+					"validators": [
+						{
+							"validator": "^(1869|18[7-9][0-9]|19[0-9][0-9]|20[0-9][0-9])/([0][1-9]|1[0-2])/([0][1-9]|[1-2][0-9]|3[01])$",
+							"arguments": [],
+							"type": "regex"
+						}
+					],
 					"fieldCategory": "pvt",
 					"format": "none",
 					"type": "string",
@@ -424,27 +375,24 @@
 					"fieldCategory": "pvt",
 					"format": "none",
 					"fieldType": "default",
-					"$ref": "#\/definitions\/biometricsType"
+					"$ref": "#/definitions/biometricsType"
 				},
 				"introducerUIN": {
-					"bioAttributes": [
-					],
+					"bioAttributes": [],
 					"fieldCategory": "evidence",
 					"format": "none",
 					"type": "string",
 					"fieldType": "default"
 				},
 				"proofOfIdentity": {
-					"bioAttributes": [
-					],
-					"fieldCategory": "pvt",
-					"format": "none",
-					"fieldType": "default",
-					"$ref": "#\/definitions\/documentType"
+					"bioAttributes": [],
+					"fieldCategory": "pvt",
+					"format": "none",
+					"fieldType": "default",
+					"$ref": "#/definitions/documentType"
 				},
 				"IDSchemaVersion": {
-					"bioAttributes": [
-					],
+					"bioAttributes": [],
 					"fieldCategory": "none",
 					"format": "none",
 					"type": "number",
@@ -452,72 +400,53 @@
 					"minimum": 0
 				},
 				"proofOfException": {
-					"bioAttributes": [
-					],
+					"bioAttributes": [],
 					"fieldCategory": "evidence",
 					"format": "none",
 					"fieldType": "default",
-					"$ref": "#\/definitions\/documentType"
+					"$ref": "#/definitions/documentType"
 				},
 				"phone": {
-					"bioAttributes": [
-					],
-					"validators": [{
-						"validator": "^[+]*([0-9]{1})([0-9]{9})$",
-						"arguments": [
-						],
-						"type": "regex"
-					}],
+					"bioAttributes": [],
+					"validators": [
+						{
+							"validator": "^[+]*([0-9]{1})([0-9]{9})$",
+							"arguments": [],
+							"type": "regex"
+						}
+					],
 					"fieldCategory": "pvt",
 					"format": "none",
 					"type": "string",
 					"fieldType": "default"
 				},
 				"introducerName": {
-					"bioAttributes": [
-					],
+					"bioAttributes": [],
 					"fieldCategory": "evidence",
 					"format": "none",
 					"fieldType": "default",
-					"$ref": "#\/definitions\/simpleType"
+					"$ref": "#/definitions/simpleType"
 				},
 				"proofOfRelationship": {
-					"bioAttributes": [
-					],
-					"fieldCategory": "pvt",
-					"format": "none",
-					"fieldType": "default",
-					"$ref": "#\/definitions\/documentType"
+					"bioAttributes": [],
+					"fieldCategory": "pvt",
+					"format": "none",
+					"fieldType": "default",
+					"$ref": "#/definitions/documentType"
 				},
 				"UIN": {
-					"bioAttributes": [
-					],
+					"bioAttributes": [],
 					"fieldCategory": "none",
 					"format": "none",
 					"type": "string",
 					"fieldType": "default"
 				},
 				"preferredLang": {
-					"bioAttributes": [
-					],
+					"bioAttributes": [],
 					"fieldCategory": "pvt",
 					"format": "none",
 					"type": "string",
 					"fieldType": "dynamic"
-				},
-				"region": {
-					"bioAttributes": [
-					],
-					"validators": [{
-						"validator": "^(?=.{0,50}$).*",
-						"arguments": [
-						],
-						"type": "regex"
-					}],
-					"fieldCategory": "pvt",
-					"format": "none",
-					"fieldType": "default",
-					"$ref": "#\/definitions\/simpleType"
 				}
 			}
 		}
@@ -541,7 +470,7 @@
       <b/>
       <sz val="11"/>
       <name val="Cambria"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -912,27 +841,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="C3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.453125" style="1"/>
-    <col min="2" max="2" width="8.453125" style="2"/>
-    <col min="3" max="3" width="11.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.453125" style="1"/>
-    <col min="5" max="5" width="15.453125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="53.7265625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7265625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.453125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.44140625" style="1"/>
+    <col min="2" max="2" width="8.44140625" style="2"/>
+    <col min="3" max="3" width="11.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" style="1"/>
+    <col min="5" max="5" width="15.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="53.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" style="2" customWidth="1"/>
     <col min="9" max="9" width="10" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.453125" style="2"/>
-    <col min="11" max="1023" width="8.453125" style="1"/>
-    <col min="1024" max="1024" width="11.54296875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.44140625" style="2"/>
+    <col min="11" max="1023" width="8.44140625" style="1"/>
+    <col min="1024" max="1024" width="11.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -964,7 +893,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
